--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>setting_name</t>
   </si>
@@ -186,12 +186,6 @@
     <t>[ '0' ]</t>
   </si>
   <si>
-    <t>plot_id &gt;= ?</t>
-  </si>
-  <si>
-    <t>'plot_id&gt;='+escape(0)</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -318,7 +312,16 @@
     <t>Beetle Selected</t>
   </si>
   <si>
-    <t>plot_name</t>
+    <t>'plot_id&gt;='+encodeURIComponent(0)</t>
+  </si>
+  <si>
+    <t>_id &gt;= ?</t>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -954,7 +957,7 @@
     <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="42.5" customWidth="1"/>
@@ -1022,13 +1025,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -1043,98 +1046,98 @@
     <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1155,107 +1158,107 @@
     <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="4:7">
@@ -1263,13 +1266,13 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="4:7">
@@ -1333,7 +1336,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1345,7 +1348,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1357,7 +1360,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1367,47 +1370,47 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1420,11 +1423,11 @@
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1436,7 +1439,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1448,7 +1451,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1460,7 +1463,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1478,14 +1481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -1528,13 +1531,13 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1550,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1598,6 +1601,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
